--- a/cocoa_supply_chain.xlsx
+++ b/cocoa_supply_chain.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klaudia Gonciarz\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2023B0D-CC05-4F54-84CC-F4E36A1A5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38520" yWindow="-240" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>Company</t>
   </si>
@@ -121,9 +127,6 @@
     <t>Tema</t>
   </si>
   <si>
-    <t>Nyon</t>
-  </si>
-  <si>
     <t>info@barry-callebaut.com</t>
   </si>
   <si>
@@ -176,13 +179,133 @@
   </si>
   <si>
     <t>Sustainable cocoa trading company</t>
+  </si>
+  <si>
+    <t>Vevey</t>
+  </si>
+  <si>
+    <t>Mars Wrigley Confectionery</t>
+  </si>
+  <si>
+    <t>Hackettstown</t>
+  </si>
+  <si>
+    <t>contact@mars.com</t>
+  </si>
+  <si>
+    <t>Top global confectionery producer</t>
+  </si>
+  <si>
+    <t>Ferrero Group</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>info@ferrero.com</t>
+  </si>
+  <si>
+    <t>Nutella and premium chocolate</t>
+  </si>
+  <si>
+    <t>Mondelēz International</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>investor@mdlz.com</t>
+  </si>
+  <si>
+    <t>Owns Cadbury, Milka, Toblerone</t>
+  </si>
+  <si>
+    <t>Meiji Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>info@meiji.com</t>
+  </si>
+  <si>
+    <t>Japanese confectionery giant</t>
+  </si>
+  <si>
+    <t>Hershey Co</t>
+  </si>
+  <si>
+    <t>Hershey</t>
+  </si>
+  <si>
+    <t>consumerrelations@hersheys.com</t>
+  </si>
+  <si>
+    <t>Major chocolate manufacturer</t>
+  </si>
+  <si>
+    <t>Nestlé S.A.</t>
+  </si>
+  <si>
+    <t>mediarelations@nestle.com</t>
+  </si>
+  <si>
+    <t>Global food and chocolate producer</t>
+  </si>
+  <si>
+    <t>Lindt &amp; Sprüngli AG</t>
+  </si>
+  <si>
+    <t>Kilchberg</t>
+  </si>
+  <si>
+    <t>contact@lindt.com</t>
+  </si>
+  <si>
+    <t>Premium Swiss chocolate brand</t>
+  </si>
+  <si>
+    <t>Pladis</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>info@pladisglobal.com</t>
+  </si>
+  <si>
+    <t>Owns McVitie’s and Godiva (license)</t>
+  </si>
+  <si>
+    <t>Ezaki Glico Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>support@glico.com</t>
+  </si>
+  <si>
+    <t>Pocky and Pretz maker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +315,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -231,27 +361,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +434,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -323,6 +468,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,9 +503,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,14 +679,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +708,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -568,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -582,22 +735,22 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3">
         <v>1600000</v>
       </c>
       <c r="G2">
-        <v>47.3769</v>
+        <v>47.376899999999999</v>
       </c>
       <c r="H2">
-        <v>8.541700000000001</v>
+        <v>8.5417000000000005</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -611,22 +764,22 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3">
         <v>900000</v>
       </c>
       <c r="G3">
-        <v>44.9778</v>
+        <v>44.977800000000002</v>
       </c>
       <c r="H3">
-        <v>-93.265</v>
+        <v>-93.265000000000001</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -640,22 +793,22 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3">
         <v>1200000</v>
       </c>
       <c r="G4">
-        <v>1.3521</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="H4">
         <v>103.8198</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -669,22 +822,22 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3">
         <v>500000</v>
       </c>
       <c r="G5">
-        <v>46.531</v>
+        <v>46.530999999999999</v>
       </c>
       <c r="H5">
-        <v>6.6396</v>
+        <v>6.6395999999999997</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -698,22 +851,22 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3">
         <v>400000</v>
       </c>
       <c r="G6">
         <v>48.8566</v>
       </c>
       <c r="H6">
-        <v>2.3522</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -727,22 +880,22 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
         <v>300000</v>
       </c>
       <c r="G7">
-        <v>5.6037</v>
+        <v>5.6036999999999999</v>
       </c>
       <c r="H7">
         <v>-0.187</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -756,22 +909,22 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3">
         <v>600000</v>
       </c>
       <c r="G8">
         <v>48.8566</v>
       </c>
       <c r="H8">
-        <v>2.3522</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -785,22 +938,22 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3">
         <v>65000</v>
       </c>
       <c r="G9">
         <v>5.6669</v>
       </c>
       <c r="H9">
-        <v>-0.0169</v>
+        <v>-1.6899999999999998E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -811,22 +964,283 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3">
         <v>100000</v>
       </c>
       <c r="G10">
-        <v>46.3833</v>
+        <v>46.383299999999998</v>
       </c>
       <c r="H10">
-        <v>6.2333</v>
+        <v>6.2332999999999998</v>
       </c>
       <c r="I10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>40.852899999999998</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-74.829899999999995</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1300000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44.697400000000002</v>
+      </c>
+      <c r="H12" s="4">
+        <v>8.0341000000000005</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-87.629800000000003</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1007500</v>
+      </c>
+      <c r="G14" s="4">
+        <v>35.689500000000002</v>
+      </c>
+      <c r="H14" s="4">
+        <v>139.6917</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="4">
+        <v>806600</v>
+      </c>
+      <c r="G15" s="4">
+        <v>40.285899999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-76.650199999999998</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="4">
+        <v>763600</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46.462800000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.8430999999999997</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4">
+        <v>457400</v>
+      </c>
+      <c r="G17" s="4">
+        <v>47.3277</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8.5517000000000003</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="4">
+        <v>465500</v>
+      </c>
+      <c r="G18" s="4">
+        <v>51.507199999999997</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-0.12759999999999999</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="4">
+        <v>315000</v>
+      </c>
+      <c r="G19" s="4">
+        <v>34.6937</v>
+      </c>
+      <c r="H19" s="4">
+        <v>135.50229999999999</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
